--- a/Sistem Keuangan Daarul Jannah - Access Ver/Excel Data/1J.xlsx
+++ b/Sistem Keuangan Daarul Jannah - Access Ver/Excel Data/1J.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/668510464213a027/Documents/Project/Sistem Keuangan Daarul Jannah - Access Ver/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/668510464213a027/Documents/Project/DJ-Finance-Sub_Sistem/Sistem Keuangan Daarul Jannah - Access Ver/Excel Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AA01C9C-C1C6-4014-ADCD-B5512DAA3073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{4AA01C9C-C1C6-4014-ADCD-B5512DAA3073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39BBF579-FCD0-4655-B6C9-71D6447798C1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C46ACE65-746B-44AE-951E-8B512C87E7CD}"/>
+    <workbookView xWindow="5325" yWindow="1620" windowWidth="21600" windowHeight="11505" xr2:uid="{C46ACE65-746B-44AE-951E-8B512C87E7CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
   <si>
     <t>NIS</t>
   </si>
@@ -149,6 +149,18 @@
   </si>
   <si>
     <t>1J</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
   </si>
 </sst>
 </file>
@@ -244,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -280,11 +292,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -295,18 +320,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -319,9 +338,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -331,24 +347,177 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -359,6 +528,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA75C54C-0426-4042-BCA1-4AA250AB7F89}" name="Table1" displayName="Table1" ref="E1:H29" totalsRowShown="0" tableBorderDxfId="4">
+  <autoFilter ref="E1:H29" xr:uid="{EA75C54C-0426-4042-BCA1-4AA250AB7F89}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{538DC511-64F6-40F4-9CED-00659EBA9DC9}" name="Column1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{848FAA4F-4A83-422E-BF70-E1FCC316A437}" name="Column2" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{216146CA-950D-46D4-B45B-7A6A937648C8}" name="Column3" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{0B9019B0-1943-427B-8FF1-9B3B6661A1E6}" name="Column4" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -658,421 +840,439 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41E29E3-B7FA-45B1-883D-3E4746D43249}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="L5" sqref="K5:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="8" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E2" s="2">
         <v>212201004</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E3" s="4">
         <v>212201005</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="G3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E4" s="2">
         <v>212201008</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="G4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E5" s="6">
         <v>212201009</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="G5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E6" s="2">
         <v>212201018</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="G6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E7" s="6">
         <v>212201021</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="G7" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E8" s="6">
         <v>212201023</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="G8" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E9" s="2">
         <v>212201024</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="G9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E10" s="6">
         <v>212201025</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="G10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E11" s="2">
         <v>212201034</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="G11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E12" s="6">
         <v>212201037</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="G12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E13" s="2">
         <v>212201046</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="F13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="12" t="s">
+      <c r="G13" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E14" s="2">
         <v>212201048</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="F14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="12" t="s">
+      <c r="G14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E15" s="2">
         <v>212201050</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="F15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="G15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E16" s="2">
         <v>212201052</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="F16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="G16" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E17" s="2">
         <v>212201058</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="G17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E18" s="6">
         <v>212201063</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="G18" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E19" s="2">
         <v>212201064</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="G19" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E20" s="6">
         <v>212201065</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="G20" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
+    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E21" s="11">
         <v>212201067</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="F21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="16" t="s">
+      <c r="G21" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E22" s="6">
         <v>212201069</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="F22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="G22" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E23" s="2">
         <v>212201076</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="F23" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="G23" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E24" s="6">
         <v>212201077</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="G24" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E25" s="2">
         <v>212201084</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="18" t="s">
+      <c r="G25" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E26" s="6">
         <v>212201093</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="G26" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E27" s="2">
         <v>212201094</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="F27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="G27" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E28" s="2">
         <v>212201100</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="G28" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E29" s="2">
         <v>212201102</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="G29" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="17" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Sistem Keuangan Daarul Jannah - Access Ver/Excel Data/1J.xlsx
+++ b/Sistem Keuangan Daarul Jannah - Access Ver/Excel Data/1J.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/668510464213a027/Documents/Project/DJ-Finance-Sub_Sistem/Sistem Keuangan Daarul Jannah - Access Ver/Excel Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/668510464213a027/Documents/Project/DJ-Finance-Sub_System/Sistem Keuangan Daarul Jannah - Access Ver/Excel Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{4AA01C9C-C1C6-4014-ADCD-B5512DAA3073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39BBF579-FCD0-4655-B6C9-71D6447798C1}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{4AA01C9C-C1C6-4014-ADCD-B5512DAA3073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBA798D1-2DAB-41C8-81C7-B0D4822B36BB}"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="1620" windowWidth="21600" windowHeight="11505" xr2:uid="{C46ACE65-746B-44AE-951E-8B512C87E7CD}"/>
+    <workbookView xWindow="1500" yWindow="3975" windowWidth="21600" windowHeight="11505" xr2:uid="{C46ACE65-746B-44AE-951E-8B512C87E7CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
   <si>
     <t>NIS</t>
   </si>
@@ -149,18 +149,6 @@
   </si>
   <si>
     <t>1J</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
-  <si>
-    <t>Column4</t>
   </si>
 </sst>
 </file>
@@ -218,7 +206,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,8 +243,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -283,10 +277,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -296,9 +290,26 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -309,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -320,15 +331,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -341,9 +346,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -354,17 +356,34 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -376,148 +395,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -528,19 +406,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA75C54C-0426-4042-BCA1-4AA250AB7F89}" name="Table1" displayName="Table1" ref="E1:H29" totalsRowShown="0" tableBorderDxfId="4">
-  <autoFilter ref="E1:H29" xr:uid="{EA75C54C-0426-4042-BCA1-4AA250AB7F89}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{538DC511-64F6-40F4-9CED-00659EBA9DC9}" name="Column1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{848FAA4F-4A83-422E-BF70-E1FCC316A437}" name="Column2" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{216146CA-950D-46D4-B45B-7A6A937648C8}" name="Column3" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{0B9019B0-1943-427B-8FF1-9B3B6661A1E6}" name="Column4" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -840,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41E29E3-B7FA-45B1-883D-3E4746D43249}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="K5:L5"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,428 +716,413 @@
     <col min="5" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E2" s="2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
         <v>212201004</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="17" t="s">
+      <c r="C2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E3" s="4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
         <v>212201005</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="18" t="s">
+      <c r="C3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E4" s="2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
         <v>212201008</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E5" s="6">
+      <c r="C4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
         <v>212201009</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="17" t="s">
+      <c r="C5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E6" s="2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
         <v>212201018</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E7" s="6">
+      <c r="C6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
         <v>212201021</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E8" s="6">
+      <c r="C7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
         <v>212201023</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E9" s="2">
+      <c r="C8" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>212201024</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="17" t="s">
+      <c r="C9" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E10" s="6">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
         <v>212201025</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E11" s="2">
+      <c r="C10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>212201034</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E12" s="6">
+      <c r="C11" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
         <v>212201037</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="17" t="s">
+      <c r="C12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E13" s="2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>212201046</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="19" t="s">
+      <c r="C13" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E14" s="2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
         <v>212201048</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="19" t="s">
+      <c r="C14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E15" s="2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>212201050</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="19" t="s">
+      <c r="C15" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E16" s="2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
         <v>212201052</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E17" s="2">
+      <c r="C16" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>212201058</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E18" s="6">
+      <c r="C17" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="21">
         <v>212201063</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E19" s="2">
+      <c r="C18" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>212201064</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="17" t="s">
+      <c r="C19" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E20" s="6">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
         <v>212201065</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="17" t="s">
+      <c r="C20" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E21" s="11">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="23">
         <v>212201067</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="B21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="20" t="s">
+      <c r="C21" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E22" s="6">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="21">
         <v>212201069</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E23" s="2">
+      <c r="C22" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>212201076</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="B23" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="17" t="s">
+      <c r="C23" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E24" s="6">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="21">
         <v>212201077</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="17" t="s">
+      <c r="C24" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E25" s="2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>212201084</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="21" t="s">
+      <c r="C25" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E26" s="6">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="21">
         <v>212201093</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E27" s="2">
+      <c r="C26" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>212201094</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="B27" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="17" t="s">
+      <c r="C27" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E28" s="2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
         <v>212201100</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E29" s="2">
+      <c r="C28" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>212201102</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" s="17" t="s">
+      <c r="C29" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="16" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>